--- a/Leetcode2.xlsx
+++ b/Leetcode2.xlsx
@@ -4311,7 +4311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Leetcode2.xlsx
+++ b/Leetcode2.xlsx
@@ -4311,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Leetcode2.xlsx
+++ b/Leetcode2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4311,8 +4311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,9 +5214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
